--- a/CSharpDevelopment/DataBase/ADONET/ADONET/ADONET.WebApp/demo.xlsx
+++ b/CSharpDevelopment/DataBase/ADONET/ADONET/ADONET.WebApp/demo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A5" sqref="A5"/>
@@ -459,6 +459,16 @@
         <v>55</v>
       </c>
     </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>saykor</t>
+        </is>
+      </c>
+      <c r="B7" s="1">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
